--- a/allTest_PCF.xlsx
+++ b/allTest_PCF.xlsx
@@ -95,7 +95,7 @@
     <t>PROD_CARELINEPI</t>
   </si>
   <si>
-    <t>m-2021-12</t>
+    <t>m-2022-01</t>
   </si>
   <si>
     <t>orgDBName_x</t>
@@ -779,13 +779,13 @@
         <v>23</v>
       </c>
       <c r="C2" s="2">
-        <v>44601</v>
+        <v>44609</v>
       </c>
       <c r="D2" t="s">
         <v>24</v>
       </c>
       <c r="E2">
-        <v>2950</v>
+        <v>2967</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -796,13 +796,13 @@
         <v>23</v>
       </c>
       <c r="C3" s="2">
-        <v>44601</v>
+        <v>44609</v>
       </c>
       <c r="D3" t="s">
         <v>24</v>
       </c>
       <c r="E3">
-        <v>5432</v>
+        <v>5479</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -813,13 +813,13 @@
         <v>23</v>
       </c>
       <c r="C4" s="2">
-        <v>44601</v>
+        <v>44609</v>
       </c>
       <c r="D4" t="s">
         <v>24</v>
       </c>
       <c r="E4">
-        <v>16249</v>
+        <v>16342</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -830,7 +830,7 @@
         <v>23</v>
       </c>
       <c r="C5" s="2">
-        <v>44601</v>
+        <v>44609</v>
       </c>
       <c r="D5" t="s">
         <v>24</v>
@@ -847,13 +847,13 @@
         <v>23</v>
       </c>
       <c r="C6" s="2">
-        <v>44601</v>
+        <v>44609</v>
       </c>
       <c r="D6" t="s">
         <v>24</v>
       </c>
       <c r="E6">
-        <v>862644</v>
+        <v>845535</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -864,13 +864,13 @@
         <v>23</v>
       </c>
       <c r="C7" s="2">
-        <v>44601</v>
+        <v>44609</v>
       </c>
       <c r="D7" t="s">
         <v>24</v>
       </c>
       <c r="E7">
-        <v>292572</v>
+        <v>298442</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -881,13 +881,13 @@
         <v>23</v>
       </c>
       <c r="C8" s="2">
-        <v>44601</v>
+        <v>44609</v>
       </c>
       <c r="D8" t="s">
         <v>24</v>
       </c>
       <c r="E8">
-        <v>12997</v>
+        <v>13364</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -909,13 +909,13 @@
         <v>23</v>
       </c>
       <c r="C10" s="2">
-        <v>44601</v>
+        <v>44609</v>
       </c>
       <c r="D10" t="s">
         <v>24</v>
       </c>
       <c r="E10">
-        <v>77355</v>
+        <v>99432</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -926,13 +926,13 @@
         <v>23</v>
       </c>
       <c r="C11" s="2">
-        <v>44601</v>
+        <v>44609</v>
       </c>
       <c r="D11" t="s">
         <v>24</v>
       </c>
       <c r="E11">
-        <v>63380</v>
+        <v>65704</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -943,13 +943,13 @@
         <v>23</v>
       </c>
       <c r="C12" s="2">
-        <v>44601</v>
+        <v>44609</v>
       </c>
       <c r="D12" t="s">
         <v>24</v>
       </c>
       <c r="E12">
-        <v>566173</v>
+        <v>571827</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -960,7 +960,7 @@
         <v>23</v>
       </c>
       <c r="C13" s="2">
-        <v>44601</v>
+        <v>44609</v>
       </c>
       <c r="D13" t="s">
         <v>24</v>
@@ -977,13 +977,13 @@
         <v>23</v>
       </c>
       <c r="C14" s="2">
-        <v>44601</v>
+        <v>44609</v>
       </c>
       <c r="D14" t="s">
         <v>24</v>
       </c>
       <c r="E14">
-        <v>1190879</v>
+        <v>1203166</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -994,13 +994,13 @@
         <v>23</v>
       </c>
       <c r="C15" s="2">
-        <v>44601</v>
+        <v>44609</v>
       </c>
       <c r="D15" t="s">
         <v>24</v>
       </c>
       <c r="E15">
-        <v>154710</v>
+        <v>198864</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1011,13 +1011,13 @@
         <v>23</v>
       </c>
       <c r="C16" s="2">
-        <v>44601</v>
+        <v>44609</v>
       </c>
       <c r="D16" t="s">
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1671981</v>
+        <v>2151648</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1028,13 +1028,13 @@
         <v>23</v>
       </c>
       <c r="C17" s="2">
-        <v>44601</v>
+        <v>44609</v>
       </c>
       <c r="D17" t="s">
         <v>24</v>
       </c>
       <c r="E17">
-        <v>113507</v>
+        <v>115788</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1045,13 +1045,13 @@
         <v>23</v>
       </c>
       <c r="C18" s="2">
-        <v>44601</v>
+        <v>44609</v>
       </c>
       <c r="D18" t="s">
         <v>24</v>
       </c>
       <c r="E18">
-        <v>76324</v>
+        <v>76918</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1062,13 +1062,13 @@
         <v>23</v>
       </c>
       <c r="C19" s="2">
-        <v>44601</v>
+        <v>44609</v>
       </c>
       <c r="D19" t="s">
         <v>24</v>
       </c>
       <c r="E19">
-        <v>37888</v>
+        <v>37794</v>
       </c>
     </row>
   </sheetData>
@@ -1124,13 +1124,13 @@
         <v>23</v>
       </c>
       <c r="C2" s="2">
-        <v>44601</v>
+        <v>44609</v>
       </c>
       <c r="D2" t="s">
         <v>24</v>
       </c>
       <c r="E2">
-        <v>2950</v>
+        <v>2967</v>
       </c>
       <c r="F2" t="s">
         <v>34</v>
@@ -1145,7 +1145,7 @@
         <v>2647</v>
       </c>
       <c r="J2">
-        <v>303</v>
+        <v>320</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -1156,13 +1156,13 @@
         <v>23</v>
       </c>
       <c r="C3" s="2">
-        <v>44601</v>
+        <v>44609</v>
       </c>
       <c r="D3" t="s">
         <v>24</v>
       </c>
       <c r="E3">
-        <v>5432</v>
+        <v>5479</v>
       </c>
       <c r="F3" t="s">
         <v>34</v>
@@ -1177,7 +1177,7 @@
         <v>4886</v>
       </c>
       <c r="J3">
-        <v>546</v>
+        <v>593</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -1188,13 +1188,13 @@
         <v>23</v>
       </c>
       <c r="C4" s="2">
-        <v>44601</v>
+        <v>44609</v>
       </c>
       <c r="D4" t="s">
         <v>24</v>
       </c>
       <c r="E4">
-        <v>16249</v>
+        <v>16342</v>
       </c>
       <c r="F4" t="s">
         <v>34</v>
@@ -1209,7 +1209,7 @@
         <v>14479</v>
       </c>
       <c r="J4">
-        <v>1770</v>
+        <v>1863</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -1220,7 +1220,7 @@
         <v>23</v>
       </c>
       <c r="C5" s="2">
-        <v>44601</v>
+        <v>44609</v>
       </c>
       <c r="D5" t="s">
         <v>24</v>
@@ -1252,13 +1252,13 @@
         <v>23</v>
       </c>
       <c r="C6" s="2">
-        <v>44601</v>
+        <v>44609</v>
       </c>
       <c r="D6" t="s">
         <v>24</v>
       </c>
       <c r="E6">
-        <v>862644</v>
+        <v>845535</v>
       </c>
       <c r="F6" t="s">
         <v>34</v>
@@ -1273,7 +1273,7 @@
         <v>768689</v>
       </c>
       <c r="J6">
-        <v>93955</v>
+        <v>76846</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -1284,13 +1284,13 @@
         <v>23</v>
       </c>
       <c r="C7" s="2">
-        <v>44601</v>
+        <v>44609</v>
       </c>
       <c r="D7" t="s">
         <v>24</v>
       </c>
       <c r="E7">
-        <v>292572</v>
+        <v>298442</v>
       </c>
       <c r="F7" t="s">
         <v>34</v>
@@ -1305,7 +1305,7 @@
         <v>261512</v>
       </c>
       <c r="J7">
-        <v>31060</v>
+        <v>36930</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -1316,13 +1316,13 @@
         <v>23</v>
       </c>
       <c r="C8" s="2">
-        <v>44601</v>
+        <v>44609</v>
       </c>
       <c r="D8" t="s">
         <v>24</v>
       </c>
       <c r="E8">
-        <v>12997</v>
+        <v>13364</v>
       </c>
       <c r="F8" t="s">
         <v>34</v>
@@ -1337,7 +1337,7 @@
         <v>11618</v>
       </c>
       <c r="J8">
-        <v>1379</v>
+        <v>1746</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -1368,13 +1368,13 @@
         <v>23</v>
       </c>
       <c r="C10" s="2">
-        <v>44601</v>
+        <v>44609</v>
       </c>
       <c r="D10" t="s">
         <v>24</v>
       </c>
       <c r="E10">
-        <v>77355</v>
+        <v>99432</v>
       </c>
       <c r="F10" t="s">
         <v>34</v>
@@ -1389,7 +1389,7 @@
         <v>74860</v>
       </c>
       <c r="J10">
-        <v>2495</v>
+        <v>24572</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -1400,13 +1400,13 @@
         <v>23</v>
       </c>
       <c r="C11" s="2">
-        <v>44601</v>
+        <v>44609</v>
       </c>
       <c r="D11" t="s">
         <v>24</v>
       </c>
       <c r="E11">
-        <v>63380</v>
+        <v>65704</v>
       </c>
       <c r="F11" t="s">
         <v>34</v>
@@ -1421,7 +1421,7 @@
         <v>55137</v>
       </c>
       <c r="J11">
-        <v>8243</v>
+        <v>10567</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -1432,13 +1432,13 @@
         <v>23</v>
       </c>
       <c r="C12" s="2">
-        <v>44601</v>
+        <v>44609</v>
       </c>
       <c r="D12" t="s">
         <v>24</v>
       </c>
       <c r="E12">
-        <v>566173</v>
+        <v>571827</v>
       </c>
       <c r="F12" t="s">
         <v>34</v>
@@ -1453,7 +1453,7 @@
         <v>503244</v>
       </c>
       <c r="J12">
-        <v>62929</v>
+        <v>68583</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -1464,7 +1464,7 @@
         <v>23</v>
       </c>
       <c r="C13" s="2">
-        <v>44601</v>
+        <v>44609</v>
       </c>
       <c r="D13" t="s">
         <v>24</v>
@@ -1496,13 +1496,13 @@
         <v>23</v>
       </c>
       <c r="C14" s="2">
-        <v>44601</v>
+        <v>44609</v>
       </c>
       <c r="D14" t="s">
         <v>24</v>
       </c>
       <c r="E14">
-        <v>1190879</v>
+        <v>1203166</v>
       </c>
       <c r="F14" t="s">
         <v>34</v>
@@ -1517,7 +1517,7 @@
         <v>1173342</v>
       </c>
       <c r="J14">
-        <v>17537</v>
+        <v>29824</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -1528,13 +1528,13 @@
         <v>23</v>
       </c>
       <c r="C15" s="2">
-        <v>44601</v>
+        <v>44609</v>
       </c>
       <c r="D15" t="s">
         <v>24</v>
       </c>
       <c r="E15">
-        <v>154710</v>
+        <v>198864</v>
       </c>
       <c r="F15" t="s">
         <v>34</v>
@@ -1549,7 +1549,7 @@
         <v>149720</v>
       </c>
       <c r="J15">
-        <v>4990</v>
+        <v>49144</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -1560,13 +1560,13 @@
         <v>23</v>
       </c>
       <c r="C16" s="2">
-        <v>44601</v>
+        <v>44609</v>
       </c>
       <c r="D16" t="s">
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1671981</v>
+        <v>2151648</v>
       </c>
       <c r="F16" t="s">
         <v>34</v>
@@ -1581,7 +1581,7 @@
         <v>1616726</v>
       </c>
       <c r="J16">
-        <v>55255</v>
+        <v>534922</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -1592,13 +1592,13 @@
         <v>23</v>
       </c>
       <c r="C17" s="2">
-        <v>44601</v>
+        <v>44609</v>
       </c>
       <c r="D17" t="s">
         <v>24</v>
       </c>
       <c r="E17">
-        <v>113507</v>
+        <v>115788</v>
       </c>
       <c r="F17" t="s">
         <v>34</v>
@@ -1613,7 +1613,7 @@
         <v>103102</v>
       </c>
       <c r="J17">
-        <v>10405</v>
+        <v>12686</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -1624,13 +1624,13 @@
         <v>23</v>
       </c>
       <c r="C18" s="2">
-        <v>44601</v>
+        <v>44609</v>
       </c>
       <c r="D18" t="s">
         <v>24</v>
       </c>
       <c r="E18">
-        <v>76324</v>
+        <v>76918</v>
       </c>
       <c r="F18" t="s">
         <v>34</v>
@@ -1645,7 +1645,7 @@
         <v>42855</v>
       </c>
       <c r="J18">
-        <v>33469</v>
+        <v>34063</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -1656,13 +1656,13 @@
         <v>23</v>
       </c>
       <c r="C19" s="2">
-        <v>44601</v>
+        <v>44609</v>
       </c>
       <c r="D19" t="s">
         <v>24</v>
       </c>
       <c r="E19">
-        <v>37888</v>
+        <v>37794</v>
       </c>
       <c r="F19" t="s">
         <v>34</v>
@@ -1677,7 +1677,7 @@
         <v>38231</v>
       </c>
       <c r="J19">
-        <v>-343</v>
+        <v>-437</v>
       </c>
     </row>
   </sheetData>
@@ -1803,10 +1803,10 @@
         <v>23</v>
       </c>
       <c r="C10">
-        <v>216</v>
+        <v>23400</v>
       </c>
       <c r="D10">
-        <v>18</v>
+        <v>1914</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1817,10 +1817,10 @@
         <v>23</v>
       </c>
       <c r="C11">
-        <v>18</v>
+        <v>2182</v>
       </c>
       <c r="D11">
-        <v>9</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1831,10 +1831,10 @@
         <v>23</v>
       </c>
       <c r="C12">
-        <v>18</v>
+        <v>2182</v>
       </c>
       <c r="D12">
-        <v>9</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1867,10 +1867,10 @@
         <v>23</v>
       </c>
       <c r="C15">
-        <v>432</v>
+        <v>46800</v>
       </c>
       <c r="D15">
-        <v>36</v>
+        <v>3828</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -1881,10 +1881,10 @@
         <v>23</v>
       </c>
       <c r="C16">
-        <v>5736</v>
+        <v>503536</v>
       </c>
       <c r="D16">
-        <v>478</v>
+        <v>41218</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -1894,8 +1894,11 @@
       <c r="B17" t="s">
         <v>23</v>
       </c>
+      <c r="C17">
+        <v>36</v>
+      </c>
       <c r="D17">
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -1917,7 +1920,7 @@
         <v>23</v>
       </c>
       <c r="C19">
-        <v>37885</v>
+        <v>37791</v>
       </c>
       <c r="D19">
         <v>455</v>
@@ -1994,13 +1997,13 @@
         <v>23</v>
       </c>
       <c r="C2" s="2">
-        <v>44601</v>
+        <v>44609</v>
       </c>
       <c r="D2" t="s">
         <v>84</v>
       </c>
       <c r="E2">
-        <v>275</v>
+        <v>297</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -2011,13 +2014,13 @@
         <v>23</v>
       </c>
       <c r="C3" s="2">
-        <v>44601</v>
+        <v>44609</v>
       </c>
       <c r="D3" t="s">
         <v>84</v>
       </c>
       <c r="E3">
-        <v>68051</v>
+        <v>69199</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -2028,13 +2031,13 @@
         <v>23</v>
       </c>
       <c r="C4" s="2">
-        <v>44601</v>
+        <v>44609</v>
       </c>
       <c r="D4" t="s">
         <v>84</v>
       </c>
       <c r="E4">
-        <v>477953</v>
+        <v>488381</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2045,13 +2048,13 @@
         <v>23</v>
       </c>
       <c r="C5" s="2">
-        <v>44601</v>
+        <v>44609</v>
       </c>
       <c r="D5" t="s">
         <v>84</v>
       </c>
       <c r="E5">
-        <v>3443</v>
+        <v>3512</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -2062,13 +2065,13 @@
         <v>23</v>
       </c>
       <c r="C6" s="2">
-        <v>44601</v>
+        <v>44609</v>
       </c>
       <c r="D6" t="s">
         <v>84</v>
       </c>
       <c r="E6">
-        <v>423403</v>
+        <v>431863</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -2079,13 +2082,13 @@
         <v>23</v>
       </c>
       <c r="C7" s="2">
-        <v>44601</v>
+        <v>44609</v>
       </c>
       <c r="D7" t="s">
         <v>84</v>
       </c>
       <c r="E7">
-        <v>291988</v>
+        <v>304443</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -2096,13 +2099,13 @@
         <v>23</v>
       </c>
       <c r="C8" s="2">
-        <v>44601</v>
+        <v>44609</v>
       </c>
       <c r="D8" t="s">
         <v>84</v>
       </c>
       <c r="E8">
-        <v>35046</v>
+        <v>35601</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -2113,13 +2116,13 @@
         <v>23</v>
       </c>
       <c r="C9" s="2">
-        <v>44601</v>
+        <v>44609</v>
       </c>
       <c r="D9" t="s">
         <v>84</v>
       </c>
       <c r="E9">
-        <v>298210</v>
+        <v>303990</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -2130,13 +2133,13 @@
         <v>23</v>
       </c>
       <c r="C10" s="2">
-        <v>44601</v>
+        <v>44609</v>
       </c>
       <c r="D10" t="s">
         <v>84</v>
       </c>
       <c r="E10">
-        <v>27746</v>
+        <v>30817</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -2235,13 +2238,13 @@
         <v>23</v>
       </c>
       <c r="C19" s="2">
-        <v>44601</v>
+        <v>44609</v>
       </c>
       <c r="D19" t="s">
         <v>84</v>
       </c>
       <c r="E19">
-        <v>112222</v>
+        <v>113370</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -2263,13 +2266,13 @@
         <v>23</v>
       </c>
       <c r="C21" s="2">
-        <v>44601</v>
+        <v>44609</v>
       </c>
       <c r="D21" t="s">
         <v>84</v>
       </c>
       <c r="E21">
-        <v>289430</v>
+        <v>301885</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -2545,13 +2548,13 @@
         <v>23</v>
       </c>
       <c r="C2" s="2">
-        <v>44601</v>
+        <v>44609</v>
       </c>
       <c r="D2" t="s">
         <v>84</v>
       </c>
       <c r="E2">
-        <v>275</v>
+        <v>297</v>
       </c>
       <c r="F2" t="s">
         <v>34</v>
@@ -2566,7 +2569,7 @@
         <v>253</v>
       </c>
       <c r="J2">
-        <v>22</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -2577,13 +2580,13 @@
         <v>23</v>
       </c>
       <c r="C3" s="2">
-        <v>44601</v>
+        <v>44609</v>
       </c>
       <c r="D3" t="s">
         <v>84</v>
       </c>
       <c r="E3">
-        <v>68051</v>
+        <v>69199</v>
       </c>
       <c r="F3" t="s">
         <v>34</v>
@@ -2598,7 +2601,7 @@
         <v>60694</v>
       </c>
       <c r="J3">
-        <v>7357</v>
+        <v>8505</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -2609,13 +2612,13 @@
         <v>23</v>
       </c>
       <c r="C4" s="2">
-        <v>44601</v>
+        <v>44609</v>
       </c>
       <c r="D4" t="s">
         <v>84</v>
       </c>
       <c r="E4">
-        <v>477953</v>
+        <v>488381</v>
       </c>
       <c r="F4" t="s">
         <v>34</v>
@@ -2630,7 +2633,7 @@
         <v>425876</v>
       </c>
       <c r="J4">
-        <v>52077</v>
+        <v>62505</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -2641,13 +2644,13 @@
         <v>23</v>
       </c>
       <c r="C5" s="2">
-        <v>44601</v>
+        <v>44609</v>
       </c>
       <c r="D5" t="s">
         <v>84</v>
       </c>
       <c r="E5">
-        <v>3443</v>
+        <v>3512</v>
       </c>
       <c r="F5" t="s">
         <v>34</v>
@@ -2662,7 +2665,7 @@
         <v>3072</v>
       </c>
       <c r="J5">
-        <v>371</v>
+        <v>440</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -2673,13 +2676,13 @@
         <v>23</v>
       </c>
       <c r="C6" s="2">
-        <v>44601</v>
+        <v>44609</v>
       </c>
       <c r="D6" t="s">
         <v>84</v>
       </c>
       <c r="E6">
-        <v>423403</v>
+        <v>431863</v>
       </c>
       <c r="F6" t="s">
         <v>34</v>
@@ -2694,7 +2697,7 @@
         <v>374747</v>
       </c>
       <c r="J6">
-        <v>48656</v>
+        <v>57116</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -2705,13 +2708,13 @@
         <v>23</v>
       </c>
       <c r="C7" s="2">
-        <v>44601</v>
+        <v>44609</v>
       </c>
       <c r="D7" t="s">
         <v>84</v>
       </c>
       <c r="E7">
-        <v>291988</v>
+        <v>304443</v>
       </c>
       <c r="F7" t="s">
         <v>34</v>
@@ -2726,7 +2729,7 @@
         <v>260015</v>
       </c>
       <c r="J7">
-        <v>31973</v>
+        <v>44428</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -2737,13 +2740,13 @@
         <v>23</v>
       </c>
       <c r="C8" s="2">
-        <v>44601</v>
+        <v>44609</v>
       </c>
       <c r="D8" t="s">
         <v>84</v>
       </c>
       <c r="E8">
-        <v>35046</v>
+        <v>35601</v>
       </c>
       <c r="F8" t="s">
         <v>34</v>
@@ -2758,7 +2761,7 @@
         <v>32050</v>
       </c>
       <c r="J8">
-        <v>2996</v>
+        <v>3551</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -2769,13 +2772,13 @@
         <v>23</v>
       </c>
       <c r="C9" s="2">
-        <v>44601</v>
+        <v>44609</v>
       </c>
       <c r="D9" t="s">
         <v>84</v>
       </c>
       <c r="E9">
-        <v>298210</v>
+        <v>303990</v>
       </c>
       <c r="F9" t="s">
         <v>34</v>
@@ -2790,7 +2793,7 @@
         <v>265753</v>
       </c>
       <c r="J9">
-        <v>32457</v>
+        <v>38237</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -2801,13 +2804,13 @@
         <v>23</v>
       </c>
       <c r="C10" s="2">
-        <v>44601</v>
+        <v>44609</v>
       </c>
       <c r="D10" t="s">
         <v>84</v>
       </c>
       <c r="E10">
-        <v>27746</v>
+        <v>30817</v>
       </c>
       <c r="F10" t="s">
         <v>34</v>
@@ -2822,7 +2825,7 @@
         <v>24393</v>
       </c>
       <c r="J10">
-        <v>3353</v>
+        <v>6424</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -2993,13 +2996,13 @@
         <v>23</v>
       </c>
       <c r="C19" s="2">
-        <v>44601</v>
+        <v>44609</v>
       </c>
       <c r="D19" t="s">
         <v>84</v>
       </c>
       <c r="E19">
-        <v>112222</v>
+        <v>113370</v>
       </c>
       <c r="F19" t="s">
         <v>34</v>
@@ -3014,7 +3017,7 @@
         <v>103712</v>
       </c>
       <c r="J19">
-        <v>8510</v>
+        <v>9658</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -3045,13 +3048,13 @@
         <v>23</v>
       </c>
       <c r="C21" s="2">
-        <v>44601</v>
+        <v>44609</v>
       </c>
       <c r="D21" t="s">
         <v>84</v>
       </c>
       <c r="E21">
-        <v>289430</v>
+        <v>301885</v>
       </c>
       <c r="F21" t="s">
         <v>34</v>
@@ -3066,7 +3069,7 @@
         <v>257457</v>
       </c>
       <c r="J21">
-        <v>31973</v>
+        <v>44428</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -3501,13 +3504,13 @@
         <v>89</v>
       </c>
       <c r="B2">
-        <v>18648</v>
+        <v>18907</v>
       </c>
       <c r="C2">
         <v>16391</v>
       </c>
       <c r="D2">
-        <v>2257</v>
+        <v>2516</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -3515,13 +3518,13 @@
         <v>90</v>
       </c>
       <c r="B3">
-        <v>1665</v>
+        <v>1702</v>
       </c>
       <c r="C3">
         <v>1591</v>
       </c>
       <c r="D3">
-        <v>74</v>
+        <v>111</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -3529,13 +3532,13 @@
         <v>91</v>
       </c>
       <c r="B4">
-        <v>18463</v>
+        <v>18722</v>
       </c>
       <c r="C4">
         <v>16687</v>
       </c>
       <c r="D4">
-        <v>1776</v>
+        <v>2035</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -3557,13 +3560,13 @@
         <v>93</v>
       </c>
       <c r="B6">
-        <v>27750</v>
+        <v>28009</v>
       </c>
       <c r="C6">
         <v>24605</v>
       </c>
       <c r="D6">
-        <v>3145</v>
+        <v>3404</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -3571,13 +3574,13 @@
         <v>94</v>
       </c>
       <c r="B7">
-        <v>29563</v>
+        <v>29785</v>
       </c>
       <c r="C7">
         <v>27047</v>
       </c>
       <c r="D7">
-        <v>2516</v>
+        <v>2738</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -3585,13 +3588,13 @@
         <v>95</v>
       </c>
       <c r="B8">
-        <v>5402</v>
+        <v>5476</v>
       </c>
       <c r="C8">
         <v>4625</v>
       </c>
       <c r="D8">
-        <v>777</v>
+        <v>851</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -3599,13 +3602,13 @@
         <v>96</v>
       </c>
       <c r="B9">
-        <v>13098</v>
+        <v>13209</v>
       </c>
       <c r="C9">
         <v>11322</v>
       </c>
       <c r="D9">
-        <v>1776</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -3613,13 +3616,13 @@
         <v>97</v>
       </c>
       <c r="B10">
-        <v>7548</v>
+        <v>7622</v>
       </c>
       <c r="C10">
         <v>6771</v>
       </c>
       <c r="D10">
-        <v>777</v>
+        <v>851</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -3627,13 +3630,13 @@
         <v>98</v>
       </c>
       <c r="B11">
-        <v>6586</v>
+        <v>6734</v>
       </c>
       <c r="C11">
         <v>5883</v>
       </c>
       <c r="D11">
-        <v>703</v>
+        <v>851</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -3641,13 +3644,13 @@
         <v>99</v>
       </c>
       <c r="B12">
-        <v>19610</v>
+        <v>19684</v>
       </c>
       <c r="C12">
         <v>17279</v>
       </c>
       <c r="D12">
-        <v>2331</v>
+        <v>2405</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -3655,13 +3658,13 @@
         <v>100</v>
       </c>
       <c r="B13">
-        <v>25715</v>
+        <v>25937</v>
       </c>
       <c r="C13">
         <v>22607</v>
       </c>
       <c r="D13">
-        <v>3108</v>
+        <v>3330</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -3669,13 +3672,13 @@
         <v>101</v>
       </c>
       <c r="B14">
-        <v>18093</v>
+        <v>18204</v>
       </c>
       <c r="C14">
         <v>16354</v>
       </c>
       <c r="D14">
-        <v>1739</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -3697,13 +3700,13 @@
         <v>103</v>
       </c>
       <c r="B16">
-        <v>31635</v>
+        <v>31709</v>
       </c>
       <c r="C16">
         <v>28490</v>
       </c>
       <c r="D16">
-        <v>3145</v>
+        <v>3219</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -3711,13 +3714,13 @@
         <v>104</v>
       </c>
       <c r="B17">
-        <v>18056</v>
+        <v>18204</v>
       </c>
       <c r="C17">
         <v>16132</v>
       </c>
       <c r="D17">
-        <v>1924</v>
+        <v>2072</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -3739,13 +3742,13 @@
         <v>106</v>
       </c>
       <c r="B19">
-        <v>2590</v>
+        <v>2627</v>
       </c>
       <c r="C19">
         <v>2220</v>
       </c>
       <c r="D19">
-        <v>370</v>
+        <v>407</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -3753,13 +3756,13 @@
         <v>107</v>
       </c>
       <c r="B20">
-        <v>7030</v>
+        <v>7067</v>
       </c>
       <c r="C20">
         <v>6179</v>
       </c>
       <c r="D20">
-        <v>851</v>
+        <v>888</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -3767,13 +3770,13 @@
         <v>108</v>
       </c>
       <c r="B21">
-        <v>18093</v>
+        <v>18315</v>
       </c>
       <c r="C21">
         <v>15614</v>
       </c>
       <c r="D21">
-        <v>2479</v>
+        <v>2701</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -3781,13 +3784,13 @@
         <v>109</v>
       </c>
       <c r="B22">
-        <v>3737</v>
+        <v>3848</v>
       </c>
       <c r="C22">
         <v>3256</v>
       </c>
       <c r="D22">
-        <v>481</v>
+        <v>592</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -3795,13 +3798,13 @@
         <v>110</v>
       </c>
       <c r="B23">
-        <v>33078</v>
+        <v>33300</v>
       </c>
       <c r="C23">
         <v>29563</v>
       </c>
       <c r="D23">
-        <v>3515</v>
+        <v>3737</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -3809,13 +3812,13 @@
         <v>111</v>
       </c>
       <c r="B24">
-        <v>44844</v>
+        <v>44918</v>
       </c>
       <c r="C24">
         <v>40108</v>
       </c>
       <c r="D24">
-        <v>4736</v>
+        <v>4810</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -3823,13 +3826,13 @@
         <v>112</v>
       </c>
       <c r="B25">
-        <v>20424</v>
+        <v>20609</v>
       </c>
       <c r="C25">
         <v>18167</v>
       </c>
       <c r="D25">
-        <v>2257</v>
+        <v>2442</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -3851,13 +3854,13 @@
         <v>114</v>
       </c>
       <c r="B27">
-        <v>13579</v>
+        <v>13653</v>
       </c>
       <c r="C27">
         <v>11988</v>
       </c>
       <c r="D27">
-        <v>1591</v>
+        <v>1665</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -3879,13 +3882,13 @@
         <v>116</v>
       </c>
       <c r="B29">
-        <v>12543</v>
+        <v>12580</v>
       </c>
       <c r="C29">
         <v>11840</v>
       </c>
       <c r="D29">
-        <v>703</v>
+        <v>740</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -3921,13 +3924,13 @@
         <v>119</v>
       </c>
       <c r="B32">
-        <v>34484</v>
+        <v>34632</v>
       </c>
       <c r="C32">
         <v>30636</v>
       </c>
       <c r="D32">
-        <v>3848</v>
+        <v>3996</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -3935,13 +3938,13 @@
         <v>120</v>
       </c>
       <c r="B33">
-        <v>9028</v>
+        <v>9102</v>
       </c>
       <c r="C33">
         <v>8325</v>
       </c>
       <c r="D33">
-        <v>703</v>
+        <v>777</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -3949,13 +3952,13 @@
         <v>121</v>
       </c>
       <c r="B34">
-        <v>11248</v>
+        <v>11285</v>
       </c>
       <c r="C34">
         <v>9768</v>
       </c>
       <c r="D34">
-        <v>1480</v>
+        <v>1517</v>
       </c>
     </row>
   </sheetData>

--- a/allTest_PCF.xlsx
+++ b/allTest_PCF.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="545" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="555" uniqueCount="123">
   <si>
     <t>tableName</t>
   </si>
@@ -90,6 +90,9 @@
   </si>
   <si>
     <t>hcc_x_patient_undercoded_layup</t>
+  </si>
+  <si>
+    <t>metric_value_patient_x_claim_layup</t>
   </si>
   <si>
     <t>PROD_CARELINEPI</t>
@@ -748,7 +751,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -776,13 +779,13 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" s="2">
-        <v>44609</v>
+        <v>44616</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E2">
         <v>2967</v>
@@ -793,13 +796,13 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" s="2">
-        <v>44609</v>
+        <v>44616</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E3">
         <v>5479</v>
@@ -810,13 +813,13 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" s="2">
-        <v>44609</v>
+        <v>44616</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E4">
         <v>16342</v>
@@ -827,13 +830,13 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" s="2">
-        <v>44609</v>
+        <v>44616</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E5">
         <v>1335</v>
@@ -844,13 +847,13 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" s="2">
-        <v>44609</v>
+        <v>44616</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E6">
         <v>845535</v>
@@ -861,13 +864,13 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" s="2">
-        <v>44609</v>
+        <v>44616</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E7">
         <v>298442</v>
@@ -878,13 +881,13 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" s="2">
-        <v>44609</v>
+        <v>44616</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E8">
         <v>13364</v>
@@ -895,7 +898,7 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -906,13 +909,13 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" s="2">
-        <v>44609</v>
+        <v>44616</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E10">
         <v>99432</v>
@@ -923,13 +926,13 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" s="2">
-        <v>44609</v>
+        <v>44616</v>
       </c>
       <c r="D11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E11">
         <v>65704</v>
@@ -940,13 +943,13 @@
         <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" s="2">
-        <v>44609</v>
+        <v>44616</v>
       </c>
       <c r="D12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E12">
         <v>571827</v>
@@ -957,13 +960,13 @@
         <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C13" s="2">
-        <v>44609</v>
+        <v>44616</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E13">
         <v>50316</v>
@@ -974,13 +977,13 @@
         <v>17</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C14" s="2">
-        <v>44609</v>
+        <v>44616</v>
       </c>
       <c r="D14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E14">
         <v>1203166</v>
@@ -991,13 +994,13 @@
         <v>18</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C15" s="2">
-        <v>44609</v>
+        <v>44616</v>
       </c>
       <c r="D15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E15">
         <v>198864</v>
@@ -1008,13 +1011,13 @@
         <v>19</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C16" s="2">
-        <v>44609</v>
+        <v>44616</v>
       </c>
       <c r="D16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E16">
         <v>2151648</v>
@@ -1025,13 +1028,13 @@
         <v>20</v>
       </c>
       <c r="B17" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C17" s="2">
-        <v>44609</v>
+        <v>44616</v>
       </c>
       <c r="D17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E17">
         <v>115788</v>
@@ -1042,13 +1045,13 @@
         <v>21</v>
       </c>
       <c r="B18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C18" s="2">
-        <v>44609</v>
+        <v>44616</v>
       </c>
       <c r="D18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E18">
         <v>76918</v>
@@ -1059,16 +1062,33 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C19" s="2">
-        <v>44609</v>
+        <v>44616</v>
       </c>
       <c r="D19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E19">
         <v>37794</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" s="2">
+        <v>44616</v>
+      </c>
+      <c r="D20" t="s">
+        <v>25</v>
+      </c>
+      <c r="E20">
+        <v>2151648</v>
       </c>
     </row>
   </sheetData>
@@ -1078,7 +1098,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J19"/>
+  <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1089,31 +1109,31 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -1121,25 +1141,25 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" s="2">
-        <v>44609</v>
+        <v>44616</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E2">
         <v>2967</v>
       </c>
       <c r="F2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G2" s="2">
         <v>44523</v>
       </c>
       <c r="H2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I2">
         <v>2647</v>
@@ -1153,25 +1173,25 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" s="2">
-        <v>44609</v>
+        <v>44616</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E3">
         <v>5479</v>
       </c>
       <c r="F3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G3" s="2">
         <v>44523</v>
       </c>
       <c r="H3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I3">
         <v>4886</v>
@@ -1185,25 +1205,25 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" s="2">
-        <v>44609</v>
+        <v>44616</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E4">
         <v>16342</v>
       </c>
       <c r="F4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G4" s="2">
         <v>44523</v>
       </c>
       <c r="H4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I4">
         <v>14479</v>
@@ -1217,25 +1237,25 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" s="2">
-        <v>44609</v>
+        <v>44616</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E5">
         <v>1335</v>
       </c>
       <c r="F5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G5" s="2">
         <v>44523</v>
       </c>
       <c r="H5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I5">
         <v>1201</v>
@@ -1249,25 +1269,25 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" s="2">
-        <v>44609</v>
+        <v>44616</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E6">
         <v>845535</v>
       </c>
       <c r="F6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G6" s="2">
         <v>44523</v>
       </c>
       <c r="H6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I6">
         <v>768689</v>
@@ -1281,25 +1301,25 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" s="2">
-        <v>44609</v>
+        <v>44616</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E7">
         <v>298442</v>
       </c>
       <c r="F7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G7" s="2">
         <v>44523</v>
       </c>
       <c r="H7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I7">
         <v>261512</v>
@@ -1313,25 +1333,25 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" s="2">
-        <v>44609</v>
+        <v>44616</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E8">
         <v>13364</v>
       </c>
       <c r="F8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G8" s="2">
         <v>44523</v>
       </c>
       <c r="H8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I8">
         <v>11618</v>
@@ -1345,13 +1365,13 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -1365,25 +1385,25 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" s="2">
-        <v>44609</v>
+        <v>44616</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E10">
         <v>99432</v>
       </c>
       <c r="F10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G10" s="2">
         <v>44523</v>
       </c>
       <c r="H10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I10">
         <v>74860</v>
@@ -1397,25 +1417,25 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" s="2">
-        <v>44609</v>
+        <v>44616</v>
       </c>
       <c r="D11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E11">
         <v>65704</v>
       </c>
       <c r="F11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G11" s="2">
         <v>44523</v>
       </c>
       <c r="H11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I11">
         <v>55137</v>
@@ -1429,25 +1449,25 @@
         <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" s="2">
-        <v>44609</v>
+        <v>44616</v>
       </c>
       <c r="D12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E12">
         <v>571827</v>
       </c>
       <c r="F12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G12" s="2">
         <v>44523</v>
       </c>
       <c r="H12" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I12">
         <v>503244</v>
@@ -1461,25 +1481,25 @@
         <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C13" s="2">
-        <v>44609</v>
+        <v>44616</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E13">
         <v>50316</v>
       </c>
       <c r="F13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G13" s="2">
         <v>44523</v>
       </c>
       <c r="H13" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I13">
         <v>50316</v>
@@ -1493,25 +1513,25 @@
         <v>17</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C14" s="2">
-        <v>44609</v>
+        <v>44616</v>
       </c>
       <c r="D14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E14">
         <v>1203166</v>
       </c>
       <c r="F14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G14" s="2">
         <v>44523</v>
       </c>
       <c r="H14" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I14">
         <v>1173342</v>
@@ -1525,25 +1545,25 @@
         <v>18</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C15" s="2">
-        <v>44609</v>
+        <v>44616</v>
       </c>
       <c r="D15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E15">
         <v>198864</v>
       </c>
       <c r="F15" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G15" s="2">
         <v>44523</v>
       </c>
       <c r="H15" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I15">
         <v>149720</v>
@@ -1557,25 +1577,25 @@
         <v>19</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C16" s="2">
-        <v>44609</v>
+        <v>44616</v>
       </c>
       <c r="D16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E16">
         <v>2151648</v>
       </c>
       <c r="F16" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G16" s="2">
         <v>44523</v>
       </c>
       <c r="H16" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I16">
         <v>1616726</v>
@@ -1589,25 +1609,25 @@
         <v>20</v>
       </c>
       <c r="B17" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C17" s="2">
-        <v>44609</v>
+        <v>44616</v>
       </c>
       <c r="D17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E17">
         <v>115788</v>
       </c>
       <c r="F17" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G17" s="2">
         <v>44523</v>
       </c>
       <c r="H17" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I17">
         <v>103102</v>
@@ -1621,25 +1641,25 @@
         <v>21</v>
       </c>
       <c r="B18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C18" s="2">
-        <v>44609</v>
+        <v>44616</v>
       </c>
       <c r="D18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E18">
         <v>76918</v>
       </c>
       <c r="F18" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G18" s="2">
         <v>44523</v>
       </c>
       <c r="H18" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I18">
         <v>42855</v>
@@ -1653,31 +1673,63 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C19" s="2">
-        <v>44609</v>
+        <v>44616</v>
       </c>
       <c r="D19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E19">
         <v>37794</v>
       </c>
       <c r="F19" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G19" s="2">
         <v>44523</v>
       </c>
       <c r="H19" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I19">
         <v>38231</v>
       </c>
       <c r="J19">
         <v>-437</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" s="2">
+        <v>44616</v>
+      </c>
+      <c r="D20" t="s">
+        <v>25</v>
+      </c>
+      <c r="E20">
+        <v>2151648</v>
+      </c>
+      <c r="F20" t="s">
+        <v>35</v>
+      </c>
+      <c r="G20" s="2">
+        <v>44523</v>
+      </c>
+      <c r="H20" t="s">
+        <v>36</v>
+      </c>
+      <c r="I20">
+        <v>1616726</v>
+      </c>
+      <c r="J20">
+        <v>534922</v>
       </c>
     </row>
   </sheetData>
@@ -1687,7 +1739,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1701,10 +1753,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1712,7 +1764,7 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -1723,7 +1775,7 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -1734,7 +1786,7 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -1745,7 +1797,7 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -1756,7 +1808,7 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -1767,7 +1819,7 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -1778,7 +1830,7 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -1789,7 +1841,7 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -1800,7 +1852,7 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10">
         <v>23400</v>
@@ -1814,7 +1866,7 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11">
         <v>2182</v>
@@ -1828,7 +1880,7 @@
         <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12">
         <v>2182</v>
@@ -1842,7 +1894,7 @@
         <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -1853,7 +1905,7 @@
         <v>17</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -1864,7 +1916,7 @@
         <v>18</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C15">
         <v>46800</v>
@@ -1878,7 +1930,7 @@
         <v>19</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C16">
         <v>503536</v>
@@ -1892,7 +1944,7 @@
         <v>20</v>
       </c>
       <c r="B17" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C17">
         <v>36</v>
@@ -1906,7 +1958,7 @@
         <v>21</v>
       </c>
       <c r="B18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -1917,13 +1969,27 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C19">
         <v>37791</v>
       </c>
       <c r="D19">
         <v>455</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20">
+        <v>2016331</v>
+      </c>
+      <c r="D20">
+        <v>236523</v>
       </c>
     </row>
   </sheetData>
@@ -1941,22 +2007,22 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -1991,16 +2057,16 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" s="2">
         <v>44609</v>
       </c>
       <c r="D2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E2">
         <v>297</v>
@@ -2008,16 +2074,16 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" s="2">
         <v>44609</v>
       </c>
       <c r="D3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E3">
         <v>69199</v>
@@ -2025,16 +2091,16 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" s="2">
         <v>44609</v>
       </c>
       <c r="D4" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E4">
         <v>488381</v>
@@ -2042,16 +2108,16 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" s="2">
         <v>44609</v>
       </c>
       <c r="D5" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E5">
         <v>3512</v>
@@ -2059,16 +2125,16 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" s="2">
         <v>44609</v>
       </c>
       <c r="D6" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E6">
         <v>431863</v>
@@ -2076,16 +2142,16 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" s="2">
         <v>44609</v>
       </c>
       <c r="D7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E7">
         <v>304443</v>
@@ -2093,16 +2159,16 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" s="2">
         <v>44609</v>
       </c>
       <c r="D8" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E8">
         <v>35601</v>
@@ -2110,16 +2176,16 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" s="2">
         <v>44609</v>
       </c>
       <c r="D9" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E9">
         <v>303990</v>
@@ -2127,16 +2193,16 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" s="2">
         <v>44609</v>
       </c>
       <c r="D10" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E10">
         <v>30817</v>
@@ -2144,10 +2210,10 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -2155,10 +2221,10 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -2166,10 +2232,10 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -2177,10 +2243,10 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -2188,10 +2254,10 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -2199,10 +2265,10 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -2210,10 +2276,10 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B17" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -2221,10 +2287,10 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -2232,16 +2298,16 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B19" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C19" s="2">
         <v>44609</v>
       </c>
       <c r="D19" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E19">
         <v>113370</v>
@@ -2249,10 +2315,10 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B20" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -2260,16 +2326,16 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B21" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C21" s="2">
         <v>44609</v>
       </c>
       <c r="D21" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E21">
         <v>301885</v>
@@ -2277,10 +2343,10 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B22" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -2288,10 +2354,10 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B23" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -2299,10 +2365,10 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B24" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -2310,10 +2376,10 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B25" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -2321,10 +2387,10 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B26" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -2332,10 +2398,10 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B27" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -2343,10 +2409,10 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B28" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -2354,10 +2420,10 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B29" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -2365,10 +2431,10 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B30" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2376,10 +2442,10 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B31" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2387,10 +2453,10 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B32" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2398,10 +2464,10 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B33" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2409,10 +2475,10 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B34" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2420,10 +2486,10 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B35" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2431,10 +2497,10 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B36" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -2442,10 +2508,10 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B37" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -2453,10 +2519,10 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B38" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -2464,10 +2530,10 @@
     </row>
     <row r="39" spans="1:5">
       <c r="A39" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B39" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -2475,10 +2541,10 @@
     </row>
     <row r="40" spans="1:5">
       <c r="A40" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B40" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -2486,10 +2552,10 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B41" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -2513,57 +2579,57 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" s="2">
         <v>44609</v>
       </c>
       <c r="D2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E2">
         <v>297</v>
       </c>
       <c r="F2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G2" s="2">
         <v>44518</v>
       </c>
       <c r="H2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I2">
         <v>253</v>
@@ -2574,28 +2640,28 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" s="2">
         <v>44609</v>
       </c>
       <c r="D3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E3">
         <v>69199</v>
       </c>
       <c r="F3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G3" s="2">
         <v>44518</v>
       </c>
       <c r="H3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I3">
         <v>60694</v>
@@ -2606,28 +2672,28 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" s="2">
         <v>44609</v>
       </c>
       <c r="D4" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E4">
         <v>488381</v>
       </c>
       <c r="F4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G4" s="2">
         <v>44518</v>
       </c>
       <c r="H4" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I4">
         <v>425876</v>
@@ -2638,28 +2704,28 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" s="2">
         <v>44609</v>
       </c>
       <c r="D5" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E5">
         <v>3512</v>
       </c>
       <c r="F5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G5" s="2">
         <v>44518</v>
       </c>
       <c r="H5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I5">
         <v>3072</v>
@@ -2670,28 +2736,28 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" s="2">
         <v>44609</v>
       </c>
       <c r="D6" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E6">
         <v>431863</v>
       </c>
       <c r="F6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G6" s="2">
         <v>44518</v>
       </c>
       <c r="H6" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I6">
         <v>374747</v>
@@ -2702,28 +2768,28 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" s="2">
         <v>44609</v>
       </c>
       <c r="D7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E7">
         <v>304443</v>
       </c>
       <c r="F7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G7" s="2">
         <v>44518</v>
       </c>
       <c r="H7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I7">
         <v>260015</v>
@@ -2734,28 +2800,28 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" s="2">
         <v>44609</v>
       </c>
       <c r="D8" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E8">
         <v>35601</v>
       </c>
       <c r="F8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G8" s="2">
         <v>44518</v>
       </c>
       <c r="H8" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I8">
         <v>32050</v>
@@ -2766,28 +2832,28 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" s="2">
         <v>44609</v>
       </c>
       <c r="D9" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E9">
         <v>303990</v>
       </c>
       <c r="F9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G9" s="2">
         <v>44518</v>
       </c>
       <c r="H9" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I9">
         <v>265753</v>
@@ -2798,28 +2864,28 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" s="2">
         <v>44609</v>
       </c>
       <c r="D10" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E10">
         <v>30817</v>
       </c>
       <c r="F10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G10" s="2">
         <v>44518</v>
       </c>
       <c r="H10" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I10">
         <v>24393</v>
@@ -2830,16 +2896,16 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -2850,16 +2916,16 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -2870,16 +2936,16 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -2890,16 +2956,16 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -2910,16 +2976,16 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -2930,16 +2996,16 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -2950,16 +3016,16 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B17" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -2970,16 +3036,16 @@
     </row>
     <row r="18" spans="1:10">
       <c r="A18" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -2990,28 +3056,28 @@
     </row>
     <row r="19" spans="1:10">
       <c r="A19" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B19" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C19" s="2">
         <v>44609</v>
       </c>
       <c r="D19" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E19">
         <v>113370</v>
       </c>
       <c r="F19" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G19" s="2">
         <v>44518</v>
       </c>
       <c r="H19" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I19">
         <v>103712</v>
@@ -3022,16 +3088,16 @@
     </row>
     <row r="20" spans="1:10">
       <c r="A20" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B20" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -3042,28 +3108,28 @@
     </row>
     <row r="21" spans="1:10">
       <c r="A21" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B21" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C21" s="2">
         <v>44609</v>
       </c>
       <c r="D21" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E21">
         <v>301885</v>
       </c>
       <c r="F21" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G21" s="2">
         <v>44518</v>
       </c>
       <c r="H21" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I21">
         <v>257457</v>
@@ -3074,16 +3140,16 @@
     </row>
     <row r="22" spans="1:10">
       <c r="A22" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B22" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -3094,16 +3160,16 @@
     </row>
     <row r="23" spans="1:10">
       <c r="A23" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B23" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -3114,16 +3180,16 @@
     </row>
     <row r="24" spans="1:10">
       <c r="A24" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B24" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -3134,16 +3200,16 @@
     </row>
     <row r="25" spans="1:10">
       <c r="A25" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B25" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -3154,16 +3220,16 @@
     </row>
     <row r="26" spans="1:10">
       <c r="A26" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B26" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E26">
         <v>0</v>
       </c>
       <c r="F26" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I26">
         <v>0</v>
@@ -3174,16 +3240,16 @@
     </row>
     <row r="27" spans="1:10">
       <c r="A27" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B27" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E27">
         <v>0</v>
       </c>
       <c r="F27" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I27">
         <v>0</v>
@@ -3194,16 +3260,16 @@
     </row>
     <row r="28" spans="1:10">
       <c r="A28" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B28" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E28">
         <v>0</v>
       </c>
       <c r="F28" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I28">
         <v>0</v>
@@ -3214,16 +3280,16 @@
     </row>
     <row r="29" spans="1:10">
       <c r="A29" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B29" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E29">
         <v>0</v>
       </c>
       <c r="F29" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I29">
         <v>0</v>
@@ -3234,16 +3300,16 @@
     </row>
     <row r="30" spans="1:10">
       <c r="A30" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B30" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E30">
         <v>0</v>
       </c>
       <c r="F30" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I30">
         <v>0</v>
@@ -3254,16 +3320,16 @@
     </row>
     <row r="31" spans="1:10">
       <c r="A31" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B31" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E31">
         <v>0</v>
       </c>
       <c r="F31" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I31">
         <v>0</v>
@@ -3274,16 +3340,16 @@
     </row>
     <row r="32" spans="1:10">
       <c r="A32" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B32" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E32">
         <v>0</v>
       </c>
       <c r="F32" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I32">
         <v>0</v>
@@ -3294,16 +3360,16 @@
     </row>
     <row r="33" spans="1:10">
       <c r="A33" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B33" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E33">
         <v>0</v>
       </c>
       <c r="F33" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I33">
         <v>0</v>
@@ -3314,16 +3380,16 @@
     </row>
     <row r="34" spans="1:10">
       <c r="A34" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B34" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E34">
         <v>0</v>
       </c>
       <c r="F34" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I34">
         <v>0</v>
@@ -3334,16 +3400,16 @@
     </row>
     <row r="35" spans="1:10">
       <c r="A35" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B35" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E35">
         <v>0</v>
       </c>
       <c r="F35" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I35">
         <v>0</v>
@@ -3354,16 +3420,16 @@
     </row>
     <row r="36" spans="1:10">
       <c r="A36" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B36" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E36">
         <v>0</v>
       </c>
       <c r="F36" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I36">
         <v>0</v>
@@ -3374,16 +3440,16 @@
     </row>
     <row r="37" spans="1:10">
       <c r="A37" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B37" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E37">
         <v>0</v>
       </c>
       <c r="F37" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I37">
         <v>0</v>
@@ -3394,16 +3460,16 @@
     </row>
     <row r="38" spans="1:10">
       <c r="A38" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B38" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E38">
         <v>0</v>
       </c>
       <c r="F38" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I38">
         <v>0</v>
@@ -3414,16 +3480,16 @@
     </row>
     <row r="39" spans="1:10">
       <c r="A39" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B39" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E39">
         <v>0</v>
       </c>
       <c r="F39" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I39">
         <v>0</v>
@@ -3434,16 +3500,16 @@
     </row>
     <row r="40" spans="1:10">
       <c r="A40" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B40" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E40">
         <v>0</v>
       </c>
       <c r="F40" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I40">
         <v>0</v>
@@ -3454,16 +3520,16 @@
     </row>
     <row r="41" spans="1:10">
       <c r="A41" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B41" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E41">
         <v>0</v>
       </c>
       <c r="F41" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I41">
         <v>0</v>
@@ -3487,21 +3553,21 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B2">
         <v>18907</v>
@@ -3515,7 +3581,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B3">
         <v>1702</v>
@@ -3529,7 +3595,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B4">
         <v>18722</v>
@@ -3543,7 +3609,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B5">
         <v>33004</v>
@@ -3557,7 +3623,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B6">
         <v>28009</v>
@@ -3571,7 +3637,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B7">
         <v>29785</v>
@@ -3585,7 +3651,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B8">
         <v>5476</v>
@@ -3599,7 +3665,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B9">
         <v>13209</v>
@@ -3613,7 +3679,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B10">
         <v>7622</v>
@@ -3627,7 +3693,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B11">
         <v>6734</v>
@@ -3641,7 +3707,7 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B12">
         <v>19684</v>
@@ -3655,7 +3721,7 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B13">
         <v>25937</v>
@@ -3669,7 +3735,7 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B14">
         <v>18204</v>
@@ -3683,7 +3749,7 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B15">
         <v>1443</v>
@@ -3697,7 +3763,7 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B16">
         <v>31709</v>
@@ -3711,7 +3777,7 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B17">
         <v>18204</v>
@@ -3725,7 +3791,7 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B18">
         <v>592</v>
@@ -3739,7 +3805,7 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B19">
         <v>2627</v>
@@ -3753,7 +3819,7 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B20">
         <v>7067</v>
@@ -3767,7 +3833,7 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B21">
         <v>18315</v>
@@ -3781,7 +3847,7 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B22">
         <v>3848</v>
@@ -3795,7 +3861,7 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B23">
         <v>33300</v>
@@ -3809,7 +3875,7 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B24">
         <v>44918</v>
@@ -3823,7 +3889,7 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B25">
         <v>20609</v>
@@ -3837,7 +3903,7 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B26">
         <v>629</v>
@@ -3851,7 +3917,7 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B27">
         <v>13653</v>
@@ -3865,7 +3931,7 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B28">
         <v>11248</v>
@@ -3879,7 +3945,7 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B29">
         <v>12580</v>
@@ -3893,7 +3959,7 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B30">
         <v>1517</v>
@@ -3907,7 +3973,7 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B31">
         <v>1850</v>
@@ -3921,7 +3987,7 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B32">
         <v>34632</v>
@@ -3935,7 +4001,7 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B33">
         <v>9102</v>
@@ -3949,7 +4015,7 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B34">
         <v>11285</v>
@@ -3982,18 +4048,18 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -4001,10 +4067,10 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -4012,10 +4078,10 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -4023,10 +4089,10 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -4034,10 +4100,10 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -4045,10 +4111,10 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -4056,10 +4122,10 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -4067,10 +4133,10 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -4078,10 +4144,10 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -4089,10 +4155,10 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -4100,10 +4166,10 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -4111,10 +4177,10 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -4122,10 +4188,10 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -4133,10 +4199,10 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -4144,10 +4210,10 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -4155,10 +4221,10 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B17" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -4166,10 +4232,10 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -4177,10 +4243,10 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B19" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -4188,10 +4254,10 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B20" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -4199,10 +4265,10 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B21" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -4210,10 +4276,10 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B22" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D22">
         <v>0</v>
@@ -4221,10 +4287,10 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B23" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D23">
         <v>0</v>
@@ -4232,10 +4298,10 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B24" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D24">
         <v>0</v>
@@ -4243,10 +4309,10 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B25" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D25">
         <v>0</v>
@@ -4254,10 +4320,10 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B26" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D26">
         <v>0</v>
@@ -4265,10 +4331,10 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B27" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D27">
         <v>0</v>
@@ -4276,10 +4342,10 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B28" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D28">
         <v>0</v>
